--- a/C1200-8T-E-2G.xlsx
+++ b/C1200-8T-E-2G.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nguyen Vinh Quang\Desktop\SPEC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Quang\Documents\Zalo Received Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D2396743-9FD0-46CF-84B9-ABB12FBA4F3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C88856BB-56DB-4839-B274-064DA7E762B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="14595" windowHeight="8746" xr2:uid="{4D99D912-7256-41F6-83E2-0172F91C64D4}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{4D99D912-7256-41F6-83E2-0172F91C64D4}"/>
   </bookViews>
   <sheets>
     <sheet name="C1200-8T-E-2G" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="172">
   <si>
     <t>Feature</t>
   </si>
@@ -48,110 +48,516 @@
     <t>C1200-8T-E-2G</t>
   </si>
   <si>
-    <t>Ports</t>
-  </si>
-  <si>
     <t>8 10/100/1000BASE-T ports</t>
   </si>
   <si>
-    <t>2 Gigabit Ethernet SFP uplinks</t>
-  </si>
-  <si>
     <t>Performance</t>
   </si>
   <si>
-    <t>Switching capacity:</t>
-  </si>
-  <si>
-    <t>Forwarding rate:</t>
-  </si>
-  <si>
-    <t>Forwarding Method</t>
-  </si>
-  <si>
-    <t>Store-and-forward</t>
-  </si>
-  <si>
-    <t>MAC Address Table</t>
-  </si>
-  <si>
-    <t>Size:</t>
-  </si>
-  <si>
-    <t>Forwarding Rate:</t>
-  </si>
-  <si>
-    <t>VLANs</t>
-  </si>
-  <si>
-    <t>Maximum VLANs supported:</t>
-  </si>
-  <si>
-    <t>VLAN IDs:</t>
-  </si>
-  <si>
-    <t>Quality of Service (QoS)</t>
-  </si>
-  <si>
-    <t>Priority levels:</t>
-  </si>
-  <si>
-    <t>Scheduling:</t>
-  </si>
-  <si>
-    <t>Class of Service (CoS):</t>
+    <t>Capacity in millions of packets per second (mpps) (64-byte packets): 14.88</t>
+  </si>
+  <si>
+    <t>Switching capacity in gigabits per second (Gbps): 20.0</t>
+  </si>
+  <si>
+    <t>Layer 2 switching</t>
+  </si>
+  <si>
+    <t>Spanning Tree Protocol (STP)</t>
+  </si>
+  <si>
+    <t>Standard 802.1d spanning tree support</t>
+  </si>
+  <si>
+    <t>Fast convergence using 802.1w (Rapid Spanning Tree Protocol [RSTP]), enabled by default</t>
+  </si>
+  <si>
+    <t>Multiple spanning tree instances using 802.1s (MSTP); 8 instances are supported</t>
+  </si>
+  <si>
+    <t>Per-VLAN Spanning Tree Plus (PVST+); 126 instances are supported</t>
+  </si>
+  <si>
+    <t>Rapid PVST+ (RPVST+); 126 instances are supported</t>
+  </si>
+  <si>
+    <t>Port grouping/link aggregation</t>
+  </si>
+  <si>
+    <t>Support for IEEE 802.3ad Link Aggregation Control Protocol (LACP)</t>
+  </si>
+  <si>
+    <t>VLAN</t>
+  </si>
+  <si>
+    <t>Support for up to 255 active VLANs simultaneously</t>
+  </si>
+  <si>
+    <t>Port-based and 802.1Q tag-based VLANs</t>
+  </si>
+  <si>
+    <t>Management VLAN</t>
+  </si>
+  <si>
+    <t>Guest VLAN</t>
+  </si>
+  <si>
+    <t>Auto Surveillance VLAN (ASV)</t>
+  </si>
+  <si>
+    <t>Voice VLAN</t>
+  </si>
+  <si>
+    <t>Voice traffic is automatically assigned to a voice-specific VLAN and treated with appropriate levels of QoS. Voice Services Discovery Protocol (VSDP) delivers networkwide zero-touch deployment of voice endpoints and call control devices</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Generic VLAN Registration Protocol (GVRP) and Generic Attribute Registration Protocol (GARP) </t>
+  </si>
+  <si>
+    <t>Enable automatically propagation and configuration of VLANs in a bridged domain</t>
+  </si>
+  <si>
+    <t>Internet Group Management Protocol (IGMP) versions 1, 2, and 3 snooping</t>
+  </si>
+  <si>
+    <t>Limits bandwidth-intensive multicast traffic to only the requesters; supports 255 multicast groups (source-specific multicasting is also supported)</t>
+  </si>
+  <si>
+    <t>IGMP querier</t>
+  </si>
+  <si>
+    <t>Used to support a Layer 2 multicast domain of snooping switches in the absence of a multicast router</t>
+  </si>
+  <si>
+    <t>Head-of-Line (HOL) blocking</t>
+  </si>
+  <si>
+    <t>HOL blocking prevention</t>
+  </si>
+  <si>
+    <t>Loopback detection</t>
+  </si>
+  <si>
+    <t>Provides protection against loops by transmitting loop protocol packets out of ports on which loop protection has been enabled. It operates independently of STP</t>
+  </si>
+  <si>
+    <t>●  Up to 4 groups</t>
+  </si>
+  <si>
+    <t>●  Up to 8 ports per group with 16 candidate ports for each (dynamic) 802.3ad Link Aggregation Group (LAG)</t>
+  </si>
+  <si>
+    <t>Layer 3 routing</t>
+  </si>
+  <si>
+    <t>IPv4 routing</t>
+  </si>
+  <si>
+    <t>Wire-speed routing of IPv4 packets</t>
+  </si>
+  <si>
+    <t>Up to 32 static routes and up to 16 IP interfaces</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IPv6 routing </t>
+  </si>
+  <si>
+    <t>Wire-speed routing of IPv6 packets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Layer 3 interface </t>
+  </si>
+  <si>
+    <t>Configuration of Layer 3 interface on physical port, LAG, VLAN interface, or loopback interface</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Classless Interdomain Routing (CIDR) </t>
+  </si>
+  <si>
+    <t>Support for CIDR</t>
+  </si>
+  <si>
+    <t>Dynamic Host Configuration Protocol (DHCP) relay at Layer 3</t>
+  </si>
+  <si>
+    <t>Relay of DHCP traffic across IP domains</t>
+  </si>
+  <si>
+    <t>User Datagram Protocol (UDP) relay</t>
+  </si>
+  <si>
+    <t>Relay of broadcast information across Layer 3 domains for application discovery or relaying of Bootstrap Protocol (BootP)/DHCP packets</t>
+  </si>
+  <si>
+    <t>Security</t>
+  </si>
+  <si>
+    <t>Secure Sockets Layer (SSL)</t>
+  </si>
+  <si>
+    <t>Encrypts all HTTPS traffic, allowing secure access to the browser-based management GUI in the switch</t>
+  </si>
+  <si>
+    <t>SSH Protocol</t>
+  </si>
+  <si>
+    <t>SSH is a secure replacement for Telnet traffic. Secure Copy (SCP) also uses SSH. SSH v1 and v2 are supported.</t>
+  </si>
+  <si>
+    <t>IEEE 802.1X (authenticator role)</t>
+  </si>
+  <si>
+    <t>RADIUS authentication, guest VLAN, single/multiple host mode, and single/multiple sessions</t>
+  </si>
+  <si>
+    <t>STP loopback guard</t>
+  </si>
+  <si>
+    <t>Provides additional protection against Layer 2 forwarding loops (STP loops)</t>
+  </si>
+  <si>
+    <t>Secure Core Technology (SCT)</t>
+  </si>
+  <si>
+    <t>Ensures that the switch will receive and process management and protocol traffic no matter how much traffic is received</t>
+  </si>
+  <si>
+    <t>Secure Sensitive Data (SSD)</t>
+  </si>
+  <si>
+    <t>A mechanism to manage sensitive data (such as passwords, keys, and so on) securely on the switch, populating this data to other devices and a secure auto-configuration. Access to view the sensitive data as plain text or encrypted is provided according to the user-configured access level and the access method of the user</t>
+  </si>
+  <si>
+    <t>Trustworthy systems</t>
+  </si>
+  <si>
+    <t>Trustworthy systems provide a highly secure foundation for Cisco products</t>
+  </si>
+  <si>
+    <t>Run-time defenses (Executable Space Protection [X-Space], Address Space Layout Randomization [ASLR], Built-In Object Size Checking [BOSC])</t>
+  </si>
+  <si>
+    <t>Port security</t>
+  </si>
+  <si>
+    <t>Ability to lock source MAC addresses to ports and limit the number of learned MAC addresses</t>
+  </si>
+  <si>
+    <t>RADIUS</t>
+  </si>
+  <si>
+    <t>Supports RADIUS authentication for management access. Switch functions as a client</t>
+  </si>
+  <si>
+    <t>Storm control</t>
+  </si>
+  <si>
+    <t>Broadcast, multicast, and unknown unicast</t>
+  </si>
+  <si>
+    <t>DoS prevention</t>
+  </si>
+  <si>
+    <t>DoS attack prevention</t>
+  </si>
+  <si>
+    <t>Multiple user privilege levels in CLI</t>
+  </si>
+  <si>
+    <t>Level 1, 7, and 15 privilege levels</t>
+  </si>
+  <si>
+    <t>ACLs</t>
+  </si>
+  <si>
+    <t>Support for up to 512 rules</t>
+  </si>
+  <si>
+    <t>Drop or rate limit based on source and destination MAC, VLAN ID, IPv4 or IPv6 address, IPv6 flow label, protocol, port, Differentiated Services Code Point (DSCP)/IP precedence, TCP/UDP source and destination ports, 802.1p priority, Ethernet type, Internet Control Message Protocol (ICMP) packets, IGMP packets, TCP flag; ACL can be applied on both ingress and egress sides</t>
+  </si>
+  <si>
+    <t>Time-based ACLs supported</t>
   </si>
   <si>
     <t>Management</t>
   </si>
   <si>
-    <t>Management interface:</t>
-  </si>
-  <si>
-    <t>Configuration:</t>
-  </si>
-  <si>
-    <t>SNMP:</t>
-  </si>
-  <si>
-    <t>Syslog:</t>
-  </si>
-  <si>
-    <t>Web-based management:</t>
-  </si>
-  <si>
-    <t>CLI:</t>
-  </si>
-  <si>
-    <t>Power Consumption</t>
-  </si>
-  <si>
-    <t>Maximum power consumption:</t>
-  </si>
-  <si>
-    <t>Power supply:</t>
-  </si>
-  <si>
-    <t>Dimensions (H x W x D)</t>
-  </si>
-  <si>
-    <t>Weight</t>
-  </si>
-  <si>
-    <t>Operating Temperature</t>
-  </si>
-  <si>
-    <t>Operating Humidity</t>
+    <t>Cisco Business Dashboard</t>
+  </si>
+  <si>
+    <t>Support for embedded probe for Cisco Business Dashboard running on the switch. Eliminates the need to set up a separate hardware or virtual machine for the Cisco Business Dashboard probe onsite</t>
+  </si>
+  <si>
+    <t>Cisco Business mobile app</t>
+  </si>
+  <si>
+    <t>Mobile app for Cisco Business switch and wireless products. Helps to set up a local network in minutes and provide easy management at your fingertips.</t>
+  </si>
+  <si>
+    <t>Cisco Network Plug and Play (PnP) agent</t>
+  </si>
+  <si>
+    <t>The Cisco Network PnP solution provides a simple, secure, unified, and integrated offering to ease new branch or campus device rollouts or for provisioning updates to an existing network. The solution provides a unified approach to provision Cisco routers, switches, and wireless devices with a near-zero-touch deployment experience.</t>
+  </si>
+  <si>
+    <t>Supports Cisco PnP Connect</t>
+  </si>
+  <si>
+    <t>Web user interface</t>
+  </si>
+  <si>
+    <t>Built-in switch configuration utility for easy browser-based device configuration (HTTP/HTTPS). Supports configuration, wizards, system dashboard, system maintenance, and monitoring</t>
+  </si>
+  <si>
+    <t>Basic and advanced mode for maximum operational efficiency</t>
+  </si>
+  <si>
+    <t>SNMP</t>
+  </si>
+  <si>
+    <t>SNMP versions 1, 2c, and 3 with support for traps, and SNMP v3 User-Based Security Model (USM)</t>
+  </si>
+  <si>
+    <t>Remote Monitoring (RMON)</t>
+  </si>
+  <si>
+    <t>Embedded RMON software agent supports 4 RMON groups (history, statistics, alarms, and events) for enhanced traffic management, monitoring, and analysis</t>
+  </si>
+  <si>
+    <t>IPv4 and IPv6 dual stack</t>
+  </si>
+  <si>
+    <t>Coexistence of both protocol stacks to ease migration</t>
+  </si>
+  <si>
+    <t>Firmware upgrade</t>
+  </si>
+  <si>
+    <t>Web browser upgrade (HTTP/HTTPS) and TFTP and upgrade over SCP running over SSH</t>
+  </si>
+  <si>
+    <t>Dual images for resilient firmware upgrades</t>
+  </si>
+  <si>
+    <t>Port mirroring</t>
+  </si>
+  <si>
+    <t>Traffic on a port can be mirrored to another port for analysis with a network analyzer or RMON probe. Up to 4 source ports can be mirrored to one destination port</t>
+  </si>
+  <si>
+    <t>VLAN mirroring</t>
+  </si>
+  <si>
+    <t>Traffic from a VLAN can be mirrored to a port for analysis with a network analyzer or RMON probe. Up to 4 source VLANs can be mirrored to one destination port</t>
+  </si>
+  <si>
+    <t>DHCP (options 12, 59, 60, 66, 67, 125, 129, and 150)</t>
+  </si>
+  <si>
+    <t>DHCP options facilitate tighter control from a central point (DHCP server) to obtain IP address, auto-configuration (with configuration and image file download), DHCP relay, and hostname</t>
+  </si>
+  <si>
+    <t>Secure Copy (SCP)</t>
+  </si>
+  <si>
+    <t>Securely transfers files to and from the switch</t>
+  </si>
+  <si>
+    <t>Auto-configuration with SCP file download</t>
+  </si>
+  <si>
+    <t>Enables mass deployment with protection of sensitive data</t>
+  </si>
+  <si>
+    <t>Text-editable configurations</t>
+  </si>
+  <si>
+    <t>Configuration files can be edited with a text editor and downloaded to another switch, facilitating easier mass deployment</t>
+  </si>
+  <si>
+    <t>Smartports</t>
+  </si>
+  <si>
+    <t>Simplified configuration of QoS and security capabilities</t>
+  </si>
+  <si>
+    <t>Auto Smartports</t>
+  </si>
+  <si>
+    <t>Automatically applies the intelligence delivered through the Smartports roles to the port based on the devices discovered over Cisco Discovery Protocol or LLDP-MED. This facilitates zero-touch deployments</t>
+  </si>
+  <si>
+    <t>Text view CLI</t>
+  </si>
+  <si>
+    <t>Scriptable CLI. A full CLI as well as a menu-based CLI is supported. User privilege levels 1, 7, and 15 are supported for the CLI</t>
+  </si>
+  <si>
+    <t>Localization</t>
+  </si>
+  <si>
+    <t>Localization of GUI and documentation into multiple languages</t>
+  </si>
+  <si>
+    <t>Login banner</t>
+  </si>
+  <si>
+    <t>Configurable multiple banners for web as well as CLI</t>
+  </si>
+  <si>
+    <t>Other management</t>
+  </si>
+  <si>
+    <t>Traceroute, single IP management, HTTP/HTTPS, RADIUS, port mirroring, TFTP upgrade, DHCP client, SNTP, cable diagnostics, Ping, syslog, Telnet client (SSH secure support), automatic time settings from management station</t>
+  </si>
+  <si>
+    <t>General</t>
+  </si>
+  <si>
+    <t>Jumbo frames</t>
+  </si>
+  <si>
+    <t>Frame sizes up to 9000 bytes. The default MTU is 2000 bytes</t>
+  </si>
+  <si>
+    <t>MAC table</t>
+  </si>
+  <si>
+    <t>8000 addresses</t>
+  </si>
+  <si>
+    <t>Chip guard</t>
+  </si>
+  <si>
+    <t>Detects tampering attempts and responds during boot-up</t>
+  </si>
+  <si>
+    <t>Boot integrity</t>
+  </si>
+  <si>
+    <t>Boot integrity visibility allows Cisco's platform identity and software integrity information to be visible and actionable</t>
+  </si>
+  <si>
+    <t>Discovery</t>
+  </si>
+  <si>
+    <t>Bonjour</t>
+  </si>
+  <si>
+    <t>The switch advertises itself using the Bonjour protocol</t>
+  </si>
+  <si>
+    <t>Link Layer Discovery Protocol (LLDP) (802.1ab) with LLDP-Media Endpoint Discovery (MED) extensions</t>
+  </si>
+  <si>
+    <t>LLDP allows the switch to advertise its identification, configuration, and capabilities to neighboring devices that store the data in a MIB. LLDP-MED is an enhancement to LLDP that adds the extensions needed for IP phones</t>
+  </si>
+  <si>
+    <t>Cisco Discovery Protocol</t>
+  </si>
+  <si>
+    <t>The switch advertises itself using the Cisco Discovery Protocol. It also learns the connected device and its characteristics using Cisco Discovery Protocol</t>
+  </si>
+  <si>
+    <t>2 Gigabit Ethernet SFP uplinks combo</t>
+  </si>
+  <si>
+    <t>Console port</t>
+  </si>
+  <si>
+    <t>USB port</t>
+  </si>
+  <si>
+    <t>USB Type C port on the front panel of the switch for easy file and image management as well as console port</t>
+  </si>
+  <si>
+    <t>Flash</t>
+  </si>
+  <si>
+    <t>512 MB</t>
+  </si>
+  <si>
+    <t>CPU</t>
+  </si>
+  <si>
+    <t>Dual-core ARM at 1.4 GHz</t>
+  </si>
+  <si>
+    <t>DRAM</t>
+  </si>
+  <si>
+    <t>1 GB DDR4</t>
+  </si>
+  <si>
+    <t>Environmental</t>
+  </si>
+  <si>
+    <t>Unit dimensions
+(W x D x H)</t>
+  </si>
+  <si>
+    <t>268 x 185 x 44 mm (10.56 x 7.28 x 1.73 in)</t>
+  </si>
+  <si>
+    <t>Unit weight</t>
+  </si>
+  <si>
+    <t>1.39 kg (3.06 lb)</t>
+  </si>
+  <si>
+    <t>Power</t>
+  </si>
+  <si>
+    <t>100 to 240V 50 to 60 Hz, external</t>
   </si>
   <si>
     <t>Certifications</t>
+  </si>
+  <si>
+    <t>UL (UL 62368), CSA (CSA 22.2), CE mark, FCC Part 15 (CFR 47) Class A</t>
+  </si>
+  <si>
+    <t>Operating temperature</t>
+  </si>
+  <si>
+    <t>32° to 122°F (0° to 50°C) for C1200-8T-D</t>
+  </si>
+  <si>
+    <t>23° to 122°F (-5° to 50°C) for other models</t>
+  </si>
+  <si>
+    <t>Storage temperature</t>
+  </si>
+  <si>
+    <t>-13° to 158°F (-25° to 70°C)</t>
+  </si>
+  <si>
+    <t>Operating humidity</t>
+  </si>
+  <si>
+    <t>10% to 90%, relative, noncondensing</t>
+  </si>
+  <si>
+    <t>Storage humidity</t>
+  </si>
+  <si>
+    <t>Cisco Standard RJ-45 console and USB Type C port</t>
+  </si>
+  <si>
+    <t>Số Ports</t>
+  </si>
+  <si>
+    <t>Thiết kế</t>
+  </si>
+  <si>
+    <t>Gắn rack (Chưa bao gồm Rackmount 19 in)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -169,6 +575,14 @@
       <charset val="163"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -184,7 +598,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -207,69 +621,36 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -585,209 +966,775 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49DFFCA8-7AE4-4950-A738-6C3FCF5B0DD7}">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="28.1328125" customWidth="1"/>
-    <col min="2" max="2" width="31.6640625" customWidth="1"/>
+    <col min="1" max="1" width="28.08984375" style="9" customWidth="1"/>
+    <col min="2" max="2" width="52.6328125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="8"/>
+      <c r="B4" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A11" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A4" s="5"/>
-      <c r="B4" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A5" s="2" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="8"/>
+      <c r="B12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="1" t="s">
+    </row>
+    <row r="13" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="3"/>
-      <c r="B6" s="1" t="s">
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" s="8" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A7" s="1" t="s">
+      <c r="B14" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="1" t="s">
+    </row>
+    <row r="15" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A15" s="8"/>
+      <c r="B15" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="42.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="2" t="s">
+    <row r="16" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A16" s="8"/>
+      <c r="B16" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="1" t="s">
+    </row>
+    <row r="17" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A17" s="8"/>
+      <c r="B17" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="3"/>
-      <c r="B9" s="1" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="8"/>
+      <c r="B18" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A10" s="2" t="s">
+    <row r="19" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A19" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B19" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A11" s="3"/>
-      <c r="B11" s="1" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="8"/>
+      <c r="B20" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A21" s="8"/>
+      <c r="B21" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="8" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A12" s="2" t="s">
+      <c r="B22" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="1" t="s">
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" s="8"/>
+      <c r="B23" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="6"/>
-      <c r="B13" s="1" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" s="8"/>
+      <c r="B24" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="42.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="3"/>
-      <c r="B14" s="1" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" s="8"/>
+      <c r="B25" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A15" s="2" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" s="8"/>
+      <c r="B26" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="1" t="s">
+    </row>
+    <row r="27" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="A27" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="6"/>
-      <c r="B16" s="1" t="s">
+      <c r="B27" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A17" s="6"/>
-      <c r="B17" s="1" t="s">
+    <row r="28" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="A28" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A18" s="6"/>
-      <c r="B18" s="1" t="s">
+      <c r="B28" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="57" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="6"/>
-      <c r="B19" s="1" t="s">
+    <row r="29" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A29" s="5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A20" s="3"/>
-      <c r="B20" s="1" t="s">
+      <c r="B29" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A21" s="2" t="s">
+    <row r="30" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A30" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B30" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="3"/>
-      <c r="B22" s="1" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A23" s="1" t="s">
+      <c r="B31" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="1"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A24" s="1" t="s">
+    </row>
+    <row r="32" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A32" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B24" s="1"/>
-    </row>
-    <row r="25" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A25" s="1" t="s">
+      <c r="B32" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="1"/>
-    </row>
-    <row r="26" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A26" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B26" s="1"/>
-    </row>
-    <row r="27" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A27" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B27" s="1"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" s="2"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" s="8"/>
+      <c r="B35" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A37" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A38" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A39" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A40" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B41" s="2"/>
+    </row>
+    <row r="42" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A42" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A43" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A44" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A45" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A46" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="87" x14ac:dyDescent="0.35">
+      <c r="A47" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A48" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A49" s="8"/>
+      <c r="B49" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A50" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A51" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A54" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A56" s="8"/>
+      <c r="B56" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57" s="8"/>
+      <c r="B57" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B58" s="2"/>
+    </row>
+    <row r="59" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="A59" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A60" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="87" x14ac:dyDescent="0.35">
+      <c r="A61" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A62" s="8"/>
+      <c r="B62" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="A63" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A64" s="8"/>
+      <c r="B64" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A65" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A66" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A67" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A68" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A69" s="8"/>
+      <c r="B69" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A70" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A71" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="A72" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A73" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A74" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A75" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A76" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="A77" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A78" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A79" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A80" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="A81" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A82" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="B82" s="2"/>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A83" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A84" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A85" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A86" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A87" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B87" s="4"/>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A88" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="A89" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A90" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A91" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="B91" s="2"/>
+    </row>
+    <row r="92" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A92" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A93" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A94" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A95" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A96" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A97" s="5"/>
+      <c r="B97" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A98" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A99" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A100" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>166</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A21:A22"/>
+  <mergeCells count="11">
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A55:A57"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="A61:A62"/>
     <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A15:A20"/>
+    <mergeCell ref="A11:A12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
